--- a/extras/sample-form-v1/Timed categories v1 sample form.xlsx
+++ b/extras/sample-form-v1/Timed categories v1 sample form.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/max.s.haberman/Documents/SurveyCTO code/Field plug-ins by Max/Finalized/timed-categories/extras/sample-form-v1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E673F85D-3A89-3F46-9E8E-CA4E5D666C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDB39B5-E0CC-0844-A9FE-EE015A182D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="500" windowWidth="28800" windowHeight="16620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28800" yWindow="500" windowWidth="28800" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="436">
   <si>
     <t>type</t>
   </si>
@@ -3208,7 +3208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3417,11 +3417,294 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="133">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF99BCE7"/>
+          <bgColor rgb="FF99BCE7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDBE5F1"/>
+          <bgColor rgb="FFDBE5F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFBD4B4"/>
+          <bgColor rgb="FFFBD4B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE3E0CF"/>
+          <bgColor rgb="FFE3E0CF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDDE8C6"/>
+          <bgColor rgb="FFDDE8C6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFBA005D"/>
+          <bgColor rgb="FFBA005D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE7D480"/>
+          <bgColor rgb="FFE7D480"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFBB57"/>
+          <bgColor rgb="FFFFBB57"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCC0D9"/>
+          <bgColor rgb="FFCCC0D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAF1DD"/>
+          <bgColor rgb="FFEAF1DD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF2DBDA"/>
+          <bgColor rgb="FFF2DBDA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFD44B"/>
+          <bgColor rgb="FFFFD44B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD8D8D8"/>
+          <bgColor rgb="FFD8D8D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFBFB00"/>
+          <bgColor rgb="FFFBFB00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF6969"/>
+          <bgColor rgb="FFFF6969"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB2A1C7"/>
+          <bgColor rgb="FFB2A1C7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE4E300"/>
+          <bgColor rgb="FFE4E300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9E004F"/>
+          <bgColor rgb="FF9E004F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFBFBFBF"/>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF6D9E"/>
+          <bgColor rgb="FFFF6D9E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDCC97A"/>
+          <bgColor rgb="FFDCC97A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC2D69B"/>
+          <bgColor rgb="FFC2D69B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC4BD97"/>
+          <bgColor rgb="FFC4BD97"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF2F2F2"/>
+          <bgColor rgb="FFF2F2F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD6E3BC"/>
+          <bgColor rgb="FFD6E3BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF4685D2"/>
+          <bgColor rgb="FF4685D2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFABF8F"/>
+          <bgColor rgb="FFFABF8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9900"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9900"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEEB400"/>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEEB400"/>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE1AAA9"/>
+          <bgColor rgb="FFE1AAA9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -4206,286 +4489,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF99BCE7"/>
-          <bgColor rgb="FF99BCE7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDBE5F1"/>
-          <bgColor rgb="FFDBE5F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFBD4B4"/>
-          <bgColor rgb="FFFBD4B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE3E0CF"/>
-          <bgColor rgb="FFE3E0CF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDDE8C6"/>
-          <bgColor rgb="FFDDE8C6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFBA005D"/>
-          <bgColor rgb="FFBA005D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE7D480"/>
-          <bgColor rgb="FFE7D480"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFBB57"/>
-          <bgColor rgb="FFFFBB57"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCC0D9"/>
-          <bgColor rgb="FFCCC0D9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEAF1DD"/>
-          <bgColor rgb="FFEAF1DD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF2DBDA"/>
-          <bgColor rgb="FFF2DBDA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFD44B"/>
-          <bgColor rgb="FFFFD44B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD8D8D8"/>
-          <bgColor rgb="FFD8D8D8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFBFB00"/>
-          <bgColor rgb="FFFBFB00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF6969"/>
-          <bgColor rgb="FFFF6969"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB2A1C7"/>
-          <bgColor rgb="FFB2A1C7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE4E300"/>
-          <bgColor rgb="FFE4E300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9E004F"/>
-          <bgColor rgb="FF9E004F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFBFBFBF"/>
-          <bgColor rgb="FFBFBFBF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF6D9E"/>
-          <bgColor rgb="FFFF6D9E"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDCC97A"/>
-          <bgColor rgb="FFDCC97A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC2D69B"/>
-          <bgColor rgb="FFC2D69B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC4BD97"/>
-          <bgColor rgb="FFC4BD97"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF2F2F2"/>
-          <bgColor rgb="FFF2F2F2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD6E3BC"/>
-          <bgColor rgb="FFD6E3BC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF4685D2"/>
-          <bgColor rgb="FF4685D2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB8CCE4"/>
-          <bgColor rgb="FFB8CCE4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFABF8F"/>
-          <bgColor rgb="FFFABF8F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9900"/>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9900"/>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEEB400"/>
-          <bgColor rgb="FFEEB400"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEEB400"/>
-          <bgColor rgb="FFEEB400"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE1AAA9"/>
-          <bgColor rgb="FFE1AAA9"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -4699,7 +4702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1011"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -5529,7 +5532,9 @@
       </c>
       <c r="D12" s="79"/>
       <c r="E12" s="77"/>
-      <c r="F12" s="79"/>
+      <c r="F12" s="108" t="s">
+        <v>416</v>
+      </c>
       <c r="G12" s="77"/>
       <c r="H12" s="79"/>
       <c r="I12" s="79"/>
@@ -31676,127 +31681,127 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:W1011">
-    <cfRule type="expression" dxfId="132" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="18" stopIfTrue="1">
       <formula>$A1="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="131" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="33" stopIfTrue="1">
       <formula>$A1="begin group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="32" stopIfTrue="1">
       <formula>$A1="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="31" stopIfTrue="1">
       <formula>$A1="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="30" stopIfTrue="1">
       <formula>$A1="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="29" stopIfTrue="1">
       <formula>$A1="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="28" stopIfTrue="1">
       <formula>$A1="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="27" stopIfTrue="1">
       <formula>$A1="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="26" stopIfTrue="1">
       <formula>OR(AND(LEFT($A1, 16)="select_multiple ", LEN($A1)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A1, 17)))), AND(LEFT($A1, 11)="select_one ", LEN($A1)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A1, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="25" stopIfTrue="1">
       <formula>OR($A1="username", $A1="phonenumber", $A1="start", $A1="end", $A1="deviceid", $A1="subscriberid", $A1="simserial", $A1="caseid")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="24" stopIfTrue="1">
       <formula>OR($A1="audio audit", $A1="text audit", $A1="speed violations count", $A1="speed violations list", $A1="speed violations audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="23" stopIfTrue="1">
       <formula>OR($A1="geopoint", $A1="geoshape", $A1="geotrace")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="22" stopIfTrue="1">
       <formula>$A1="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="119" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="21" stopIfTrue="1">
       <formula>$A1="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="15" stopIfTrue="1">
       <formula>OR(AND(LEFT($A1, 14)="sensor_stream ", LEN($A1)&gt;14, NOT(ISNUMBER(SEARCH(" ", $A1, 15)))), AND(LEFT($A1, 17)="sensor_statistic ", LEN($A1)&gt;17, NOT(ISNUMBER(SEARCH(" ", $A1, 18)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="16" stopIfTrue="1">
       <formula>$A1="comments"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="17" stopIfTrue="1">
       <formula>OR($A1="audio", $A1="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="20" stopIfTrue="1">
       <formula>OR($A1="calculate", $A1="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="19" stopIfTrue="1">
       <formula>OR($A1="date", $A1="datetime")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1011 F1:F1011">
-    <cfRule type="expression" dxfId="113" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="35" stopIfTrue="1">
       <formula>OR(AND(LEFT($A1, 14)="sensor_stream ", LEN($A1)&gt;14, NOT(ISNUMBER(SEARCH(" ", $A1, 15)))), AND(LEFT($A1, 17)="sensor_statistic ", LEN($A1)&gt;17, NOT(ISNUMBER(SEARCH(" ", $A1, 18)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="7" stopIfTrue="1">
       <formula>OR($A1="audio audit", $A1="text audit", $A1="speed violations count", $A1="speed violations list", $A1="speed violations audit")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1011 N1:N1011">
-    <cfRule type="expression" dxfId="111" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="11" stopIfTrue="1">
       <formula>OR($A1="calculate", $A1="calculate_here")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1011">
-    <cfRule type="expression" dxfId="110" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="34" stopIfTrue="1">
       <formula>$A1="comments"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:C1011 F1:F1011 I1:I1011">
-    <cfRule type="expression" dxfId="109" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="1" stopIfTrue="1">
       <formula>$A1="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:C1011 F1:F1011">
-    <cfRule type="expression" dxfId="108" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="13" stopIfTrue="1">
       <formula>$A1="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="6" stopIfTrue="1">
       <formula>OR(AND(LEFT($A1, 16)="select_multiple ", LEN($A1)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A1, 17)))), AND(LEFT($A1, 11)="select_one ", LEN($A1)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A1, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="12" stopIfTrue="1">
       <formula>OR($A1="date", $A1="datetime")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:C1011 I1:I1011 O1:O1011">
-    <cfRule type="expression" dxfId="105" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="2" stopIfTrue="1">
       <formula>$A1="begin repeat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:C1011">
-    <cfRule type="expression" dxfId="104" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="8" stopIfTrue="1">
       <formula>$A1="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="14" stopIfTrue="1">
       <formula>OR($A1="audio", $A1="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="9" stopIfTrue="1">
       <formula>$A1="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="10" stopIfTrue="1">
       <formula>OR($A1="geopoint", $A1="geoshape", $A1="geotrace")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:D1011 F1:F1011">
-    <cfRule type="expression" dxfId="100" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
       <formula>$A1="text"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:D1011 G1:H1011">
-    <cfRule type="expression" dxfId="99" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
       <formula>$A1="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>$A1="decimal"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38945,7 +38950,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -39008,7 +39013,7 @@
       </c>
       <c r="C2" s="10" t="str">
         <f ca="1">TEXT(YEAR(NOW())-2000, "00") &amp; TEXT(MONTH(NOW()), "00") &amp; TEXT(DAY(NOW()), "00") &amp; TEXT(HOUR(NOW()), "00") &amp; TEXT(MINUTE(NOW()), "00")</f>
-        <v>2312161702</v>
+        <v>2312172114</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>38</v>
@@ -46381,492 +46386,492 @@
     <mergeCell ref="A83:B83"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:C5 H5 L5">
-    <cfRule type="expression" dxfId="97" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="132" priority="1" stopIfTrue="1">
       <formula>$A5="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5 L5 S5">
-    <cfRule type="expression" dxfId="96" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="2" stopIfTrue="1">
       <formula>$A5="begin repeat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5 B5:F5">
-    <cfRule type="expression" dxfId="95" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="130" priority="3" stopIfTrue="1">
       <formula>$A5="text"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:J5 B5:F5">
-    <cfRule type="expression" dxfId="94" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="4" stopIfTrue="1">
       <formula>$A5="integer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:J5 B5:F5">
-    <cfRule type="expression" dxfId="93" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="128" priority="5" stopIfTrue="1">
       <formula>$A5="decimal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5 H5">
-    <cfRule type="expression" dxfId="92" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="6" stopIfTrue="1">
       <formula>OR(AND(LEFT($A5, 16)="select_multiple ", LEN($A5)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A5, 17)))), AND(LEFT($A5, 11)="select_one ", LEN($A5)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A5, 12)))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5 H5">
-    <cfRule type="expression" dxfId="91" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="7" stopIfTrue="1">
       <formula>OR($A5="audio audit", $A5="text audit")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5">
-    <cfRule type="expression" dxfId="90" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="8" stopIfTrue="1">
       <formula>$A5="note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5">
-    <cfRule type="expression" dxfId="89" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="9" stopIfTrue="1">
       <formula>$A5="barcode"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5">
-    <cfRule type="expression" dxfId="88" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="10" stopIfTrue="1">
       <formula>$A5="geopoint"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5 R5">
-    <cfRule type="expression" dxfId="87" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="122" priority="11" stopIfTrue="1">
       <formula>OR($A5="calculate", $A5="calculate_here")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5 H5">
-    <cfRule type="expression" dxfId="86" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="121" priority="12" stopIfTrue="1">
       <formula>OR($A5="date", $A5="datetime")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5 H5">
-    <cfRule type="expression" dxfId="85" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="13" stopIfTrue="1">
       <formula>$A5="image"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5">
-    <cfRule type="expression" dxfId="84" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="14" stopIfTrue="1">
       <formula>OR($A5="audio", $A5="video")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:J5 L5:O5 Q5:S5 W5:AD5">
-    <cfRule type="expression" dxfId="83" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="118" priority="15" stopIfTrue="1">
       <formula>$A5="comments"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:J5 L5:O5 Q5:S5 W5:AD5">
-    <cfRule type="expression" dxfId="82" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="117" priority="16" stopIfTrue="1">
       <formula>OR($A5="audio", $A5="video")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:J5 L5:O5 Q5:S5 W5:AD5">
-    <cfRule type="expression" dxfId="81" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="116" priority="17" stopIfTrue="1">
       <formula>$A5="image"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:J5 L5:O5 Q5:S5 W5:AD5">
-    <cfRule type="expression" dxfId="80" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="115" priority="18" stopIfTrue="1">
       <formula>OR($A5="date", $A5="datetime")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:J5 L5:O5 Q5:S5 W5:AD5">
-    <cfRule type="expression" dxfId="79" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="19" stopIfTrue="1">
       <formula>OR($A5="calculate", $A5="calculate_here")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:J5 L5:O5 Q5:S5 W5:AD5">
-    <cfRule type="expression" dxfId="78" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="113" priority="20" stopIfTrue="1">
       <formula>$A5="note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:J5 L5:O5 Q5:S5 W5:AD5">
-    <cfRule type="expression" dxfId="77" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="112" priority="21" stopIfTrue="1">
       <formula>$A5="barcode"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:J5 L5:O5 Q5:S5 W5:AD5">
-    <cfRule type="expression" dxfId="76" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="22" stopIfTrue="1">
       <formula>$A5="geopoint"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:J5 L5:O5 Q5:S5 W5:AD5">
-    <cfRule type="expression" dxfId="75" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="110" priority="23" stopIfTrue="1">
       <formula>OR($A5="audio audit", $A5="text audit")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:J5 L5:O5 Q5:S5 W5:AD5">
-    <cfRule type="expression" dxfId="74" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="109" priority="24" stopIfTrue="1">
       <formula>OR($A5="phonenumber", $A5="start", $A5="end", $A5="deviceid", $A5="subscriberid", $A5="simserial")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:J5 L5:O5 Q5:S5 W5:AD5">
-    <cfRule type="expression" dxfId="73" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="25" stopIfTrue="1">
       <formula>OR(AND(LEFT($A5, 16)="select_multiple ", LEN($A5)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A5, 17)))), AND(LEFT($A5, 11)="select_one ", LEN($A5)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A5, 12)))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:J5 L5:O5 Q5:S5 W5:AD5">
-    <cfRule type="expression" dxfId="72" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="26" stopIfTrue="1">
       <formula>$A5="decimal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:J5 L5:O5 Q5:S5 W5:AD5">
-    <cfRule type="expression" dxfId="71" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="27" stopIfTrue="1">
       <formula>$A5="integer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:J5 L5:O5 Q5:S5 W5:AD5">
-    <cfRule type="expression" dxfId="70" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="28" stopIfTrue="1">
       <formula>$A5="text"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:J5 L5:O5 Q5:S5 W5:AD5">
-    <cfRule type="expression" dxfId="69" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="29" stopIfTrue="1">
       <formula>$A5="end repeat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:J5 L5:O5 Q5:S5 W5:AD5">
-    <cfRule type="expression" dxfId="68" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="30" stopIfTrue="1">
       <formula>$A5="begin repeat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:J5 L5:O5 Q5:S5 W5:AD5">
-    <cfRule type="expression" dxfId="67" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="31" stopIfTrue="1">
       <formula>$A5="end group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:J5 L5:O5 Q5:S5 W5:AD5">
-    <cfRule type="expression" dxfId="66" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="32" stopIfTrue="1">
       <formula>$A5="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="65" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="33" stopIfTrue="1">
       <formula>$A5="comments"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T5:V5">
-    <cfRule type="expression" dxfId="64" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="34" stopIfTrue="1">
       <formula>$A5="comments"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T5:V5">
-    <cfRule type="expression" dxfId="63" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="35" stopIfTrue="1">
       <formula>OR($A5="audio", $A5="video")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T5:V5">
-    <cfRule type="expression" dxfId="62" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="36" stopIfTrue="1">
       <formula>$A5="image"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T5:V5">
-    <cfRule type="expression" dxfId="61" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="37" stopIfTrue="1">
       <formula>OR($A5="date", $A5="datetime")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T5:V5">
-    <cfRule type="expression" dxfId="60" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="38" stopIfTrue="1">
       <formula>OR($A5="calculate", $A5="calculate_here")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T5:V5">
-    <cfRule type="expression" dxfId="59" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="39" stopIfTrue="1">
       <formula>$A5="note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T5:V5">
-    <cfRule type="expression" dxfId="58" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="40" stopIfTrue="1">
       <formula>$A5="barcode"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T5:V5">
-    <cfRule type="expression" dxfId="57" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="41" stopIfTrue="1">
       <formula>$A5="geopoint"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T5:V5">
-    <cfRule type="expression" dxfId="56" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="42" stopIfTrue="1">
       <formula>OR($A5="audio audit", $A5="text audit")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T5:V5">
-    <cfRule type="expression" dxfId="55" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="43" stopIfTrue="1">
       <formula>OR($A5="phonenumber", $A5="start", $A5="end", $A5="deviceid", $A5="subscriberid", $A5="simserial")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T5:V5">
-    <cfRule type="expression" dxfId="54" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="44" stopIfTrue="1">
       <formula>OR(AND(LEFT($A5, 16)="select_multiple ", LEN($A5)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A5, 17)))), AND(LEFT($A5, 11)="select_one ", LEN($A5)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A5, 12)))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T5:V5">
-    <cfRule type="expression" dxfId="53" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="45" stopIfTrue="1">
       <formula>$A5="decimal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T5:V5">
-    <cfRule type="expression" dxfId="52" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="46" stopIfTrue="1">
       <formula>$A5="integer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T5:V5">
-    <cfRule type="expression" dxfId="51" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="47" stopIfTrue="1">
       <formula>$A5="text"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T5:V5">
-    <cfRule type="expression" dxfId="50" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="48" stopIfTrue="1">
       <formula>$A5="end repeat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T5:V5">
-    <cfRule type="expression" dxfId="49" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="49" stopIfTrue="1">
       <formula>$A5="begin repeat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T5:V5">
-    <cfRule type="expression" dxfId="48" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="50" stopIfTrue="1">
       <formula>$A5="end group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T5:V5">
-    <cfRule type="expression" dxfId="47" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="51" stopIfTrue="1">
       <formula>$A5="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="46" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="52" stopIfTrue="1">
       <formula>$A5="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="45" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="53" stopIfTrue="1">
       <formula>$A5="begin repeat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="44" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="54" stopIfTrue="1">
       <formula>OR(AND(LEFT($A5, 16)="select_multiple ", LEN($A5)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A5, 17)))), AND(LEFT($A5, 11)="select_one ", LEN($A5)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A5, 12)))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="43" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="55" stopIfTrue="1">
       <formula>$A5="note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="42" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="56" stopIfTrue="1">
       <formula>$A5="barcode"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="41" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="57" stopIfTrue="1">
       <formula>$A5="geopoint"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="40" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="58" stopIfTrue="1">
       <formula>OR($A5="date", $A5="datetime")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="39" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="59" stopIfTrue="1">
       <formula>$A5="image"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="38" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="60" stopIfTrue="1">
       <formula>OR($A5="audio", $A5="video")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="37" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="61" stopIfTrue="1">
       <formula>$A5="integer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="36" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="62" stopIfTrue="1">
       <formula>$A5="decimal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="35" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="63" stopIfTrue="1">
       <formula>$A5="comments"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="34" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="64" stopIfTrue="1">
       <formula>OR($A5="audio", $A5="video")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="33" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="65" stopIfTrue="1">
       <formula>$A5="image"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="32" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="66" stopIfTrue="1">
       <formula>OR($A5="date", $A5="datetime")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="31" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="67" stopIfTrue="1">
       <formula>OR($A5="calculate", $A5="calculate_here")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="30" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="68" stopIfTrue="1">
       <formula>$A5="note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="29" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="69" stopIfTrue="1">
       <formula>$A5="barcode"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="28" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="70" stopIfTrue="1">
       <formula>$A5="geopoint"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="27" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="71" stopIfTrue="1">
       <formula>OR($A5="audio audit", $A5="text audit")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="26" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="72" stopIfTrue="1">
       <formula>OR($A5="phonenumber", $A5="start", $A5="end", $A5="deviceid", $A5="subscriberid", $A5="simserial")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="25" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="73" stopIfTrue="1">
       <formula>OR(AND(LEFT($A5, 16)="select_multiple ", LEN($A5)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A5, 17)))), AND(LEFT($A5, 11)="select_one ", LEN($A5)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A5, 12)))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="24" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="74" stopIfTrue="1">
       <formula>$A5="decimal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="23" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="75" stopIfTrue="1">
       <formula>$A5="integer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="22" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="76" stopIfTrue="1">
       <formula>$A5="text"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="21" priority="77" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="77" stopIfTrue="1">
       <formula>$A5="end repeat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="20" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="78" stopIfTrue="1">
       <formula>$A5="begin repeat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="19" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="79" stopIfTrue="1">
       <formula>$A5="end group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="18" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="80" stopIfTrue="1">
       <formula>$A5="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P5">
-    <cfRule type="expression" dxfId="17" priority="81" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="81" stopIfTrue="1">
       <formula>$A5="comments"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P5">
-    <cfRule type="expression" dxfId="16" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="82" stopIfTrue="1">
       <formula>OR($A5="audio", $A5="video")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P5">
-    <cfRule type="expression" dxfId="15" priority="83" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="83" stopIfTrue="1">
       <formula>$A5="image"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P5">
-    <cfRule type="expression" dxfId="14" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="84" stopIfTrue="1">
       <formula>OR($A5="date", $A5="datetime")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P5">
-    <cfRule type="expression" dxfId="13" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="85" stopIfTrue="1">
       <formula>OR($A5="calculate", $A5="calculate_here")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P5">
-    <cfRule type="expression" dxfId="12" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="86" stopIfTrue="1">
       <formula>$A5="note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P5">
-    <cfRule type="expression" dxfId="11" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="87" stopIfTrue="1">
       <formula>$A5="barcode"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P5">
-    <cfRule type="expression" dxfId="10" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="88" stopIfTrue="1">
       <formula>$A5="geopoint"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P5">
-    <cfRule type="expression" dxfId="9" priority="89" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="89" stopIfTrue="1">
       <formula>OR($A5="audio audit", $A5="text audit")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P5">
-    <cfRule type="expression" dxfId="8" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="90" stopIfTrue="1">
       <formula>OR($A5="phonenumber", $A5="start", $A5="end", $A5="deviceid", $A5="subscriberid", $A5="simserial")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P5">
-    <cfRule type="expression" dxfId="7" priority="91" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="91" stopIfTrue="1">
       <formula>OR(AND(LEFT($A5, 16)="select_multiple ", LEN($A5)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A5, 17)))), AND(LEFT($A5, 11)="select_one ", LEN($A5)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A5, 12)))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P5">
-    <cfRule type="expression" dxfId="6" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="92" stopIfTrue="1">
       <formula>$A5="decimal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P5">
-    <cfRule type="expression" dxfId="5" priority="93" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="93" stopIfTrue="1">
       <formula>$A5="integer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P5">
-    <cfRule type="expression" dxfId="4" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="94" stopIfTrue="1">
       <formula>$A5="text"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P5">
-    <cfRule type="expression" dxfId="3" priority="95" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="95" stopIfTrue="1">
       <formula>$A5="end repeat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P5">
-    <cfRule type="expression" dxfId="2" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="96" stopIfTrue="1">
       <formula>$A5="begin repeat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P5">
-    <cfRule type="expression" dxfId="1" priority="97" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="97" stopIfTrue="1">
       <formula>$A5="end group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P5">
-    <cfRule type="expression" dxfId="0" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="98" stopIfTrue="1">
       <formula>$A5="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
